--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/147.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/147.xlsx
@@ -479,13 +479,13 @@
         <v>0.08866940163726278</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.010148225290522</v>
+        <v>-2.010262341676817</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.05809614461748751</v>
+        <v>-0.007634665607708761</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1887019552265334</v>
+        <v>-0.1796182908775071</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.09763067455432677</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.777570372917572</v>
+        <v>-1.815210679174796</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01822624027494109</v>
+        <v>0.01573951834360645</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1367278438411847</v>
+        <v>-0.1395390419918277</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.09729429071428959</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.870363522175611</v>
+        <v>-1.921881955025343</v>
       </c>
       <c r="F4" t="n">
-        <v>0.05258415793501296</v>
+        <v>0.07219486216729822</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1228245329427357</v>
+        <v>-0.1253886100913345</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.08646505463268579</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.952480886743429</v>
+        <v>-2.02000788106635</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1329457041730196</v>
+        <v>0.1486134905064466</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1779466825706858</v>
+        <v>-0.1738085863007863</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.07319238397805292</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.941843665521679</v>
+        <v>-2.03411817547925</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2862897950083751</v>
+        <v>0.2836234066168918</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1835470426042736</v>
+        <v>-0.1831204834224011</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.06842167965784159</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.806633061973268</v>
+        <v>-1.924013963925145</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4366574156853512</v>
+        <v>0.4133603586709797</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.22512318367431</v>
+        <v>-0.2193984761301394</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.07943013799748465</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.316289903248314</v>
+        <v>-1.482852606664352</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7136186722311776</v>
+        <v>0.6517644428214244</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2158490630116063</v>
+        <v>-0.2106123013950389</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1100757786323399</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.5323906043816599</v>
+        <v>-0.7492243304938</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7900483187041751</v>
+        <v>0.7293887698074892</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1435748270188427</v>
+        <v>-0.1397405164393542</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1636719752147036</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3390540639926168</v>
+        <v>0.0778770711951937</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8612884241342442</v>
+        <v>0.7728678999951781</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06020375622090913</v>
+        <v>-0.06101752410662159</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2409015837946357</v>
       </c>
       <c r="E11" t="n">
-        <v>1.502310859322192</v>
+        <v>1.161000553059351</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9688537428456906</v>
+        <v>0.8467460614725472</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1110526722148483</v>
+        <v>0.08869373059677203</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3398748553393644</v>
       </c>
       <c r="E12" t="n">
-        <v>2.824351555570338</v>
+        <v>2.402357029149623</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9246411197474756</v>
+        <v>0.7711034245602</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2667955681910661</v>
+        <v>0.2424911389390622</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4539517020269496</v>
       </c>
       <c r="E13" t="n">
-        <v>4.24853664867617</v>
+        <v>3.748511698336096</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9288720831455318</v>
+        <v>0.725346688703989</v>
       </c>
       <c r="G13" t="n">
-        <v>0.583401644345093</v>
+        <v>0.5277553463497497</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.5820341543441084</v>
       </c>
       <c r="E14" t="n">
-        <v>5.627843308595478</v>
+        <v>5.070672020037461</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8025790849288499</v>
+        <v>0.5664541804660485</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8626530987124119</v>
+        <v>0.7997127961089613</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.7234102304605039</v>
       </c>
       <c r="E15" t="n">
-        <v>6.856206256839413</v>
+        <v>6.254413100211643</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5849709414090298</v>
+        <v>0.3110349496143433</v>
       </c>
       <c r="G15" t="n">
-        <v>1.111655053606574</v>
+        <v>1.034178684417912</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.8808842918231665</v>
       </c>
       <c r="E16" t="n">
-        <v>7.977794043970795</v>
+        <v>7.339954275446118</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3651575971002675</v>
+        <v>0.07742690172650171</v>
       </c>
       <c r="G16" t="n">
-        <v>1.373741829456109</v>
+        <v>1.285307139144951</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.052897662299317</v>
       </c>
       <c r="E17" t="n">
-        <v>9.062836255143818</v>
+        <v>8.382501118382265</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.004025439762566283</v>
+        <v>-0.2949813003158771</v>
       </c>
       <c r="G17" t="n">
-        <v>1.657205358992029</v>
+        <v>1.550767037971434</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.237748164988821</v>
       </c>
       <c r="E18" t="n">
-        <v>9.774648626293143</v>
+        <v>9.08123339063358</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.2391618602171908</v>
+        <v>-0.530888990139939</v>
       </c>
       <c r="G18" t="n">
-        <v>2.014243264314906</v>
+        <v>1.880969491295256</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.427485220235182</v>
       </c>
       <c r="E19" t="n">
-        <v>10.41105131536007</v>
+        <v>9.715959749336326</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5125847217783333</v>
+        <v>-0.8054797738890865</v>
       </c>
       <c r="G19" t="n">
-        <v>2.220962343553568</v>
+        <v>2.0887809398041</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.611098343604332</v>
       </c>
       <c r="E20" t="n">
-        <v>10.72707972649658</v>
+        <v>10.06813865763175</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.8234881266558878</v>
+        <v>-1.11901966079482</v>
       </c>
       <c r="G20" t="n">
-        <v>2.449095952937526</v>
+        <v>2.321162826796449</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.778236873958995</v>
       </c>
       <c r="E21" t="n">
-        <v>11.16472000298303</v>
+        <v>10.50470230503922</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.104116060744784</v>
+        <v>-1.398171164947936</v>
       </c>
       <c r="G21" t="n">
-        <v>2.606998403148169</v>
+        <v>2.478525388448485</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.921135901948936</v>
       </c>
       <c r="E22" t="n">
-        <v>11.37185777130795</v>
+        <v>10.72858763681479</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.456692408868335</v>
+        <v>-1.73467992588125</v>
       </c>
       <c r="G22" t="n">
-        <v>2.750558391125519</v>
+        <v>2.626546146615602</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.03704106623436</v>
       </c>
       <c r="E23" t="n">
-        <v>11.49949183381598</v>
+        <v>10.8913868605118</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.643743332176784</v>
+        <v>-1.922334485522717</v>
       </c>
       <c r="G23" t="n">
-        <v>2.783823711235088</v>
+        <v>2.667256577168923</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.121793332507939</v>
       </c>
       <c r="E24" t="n">
-        <v>11.27508235367302</v>
+        <v>10.72284089300292</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.990209338071446</v>
+        <v>-2.245069792135089</v>
       </c>
       <c r="G24" t="n">
-        <v>2.876843519246595</v>
+        <v>2.767545205482596</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.174709752272681</v>
       </c>
       <c r="E25" t="n">
-        <v>11.14782448173498</v>
+        <v>10.62337075463232</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.249099281085619</v>
+        <v>-2.482590064548924</v>
       </c>
       <c r="G25" t="n">
-        <v>2.879470557160045</v>
+        <v>2.780420681894836</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.193504491572442</v>
       </c>
       <c r="E26" t="n">
-        <v>10.73765398695348</v>
+        <v>10.27116823605008</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.519018376082746</v>
+        <v>-2.715928168157462</v>
       </c>
       <c r="G26" t="n">
-        <v>2.908005949810105</v>
+        <v>2.817112641631476</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.181849099239224</v>
       </c>
       <c r="E27" t="n">
-        <v>10.5454536600897</v>
+        <v>10.10297170078613</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.769189040174474</v>
+        <v>-2.928216127047286</v>
       </c>
       <c r="G27" t="n">
-        <v>2.892185483621912</v>
+        <v>2.810356951562853</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.141614740112198</v>
       </c>
       <c r="E28" t="n">
-        <v>10.15518978513528</v>
+        <v>9.74329101735859</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.826008769424747</v>
+        <v>-2.975206893894597</v>
       </c>
       <c r="G28" t="n">
-        <v>2.951182868326505</v>
+        <v>2.85613257564852</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.078005362385019</v>
       </c>
       <c r="E29" t="n">
-        <v>9.701014437779575</v>
+        <v>9.324022692055969</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.914962099036373</v>
+        <v>-3.048003704235632</v>
       </c>
       <c r="G29" t="n">
-        <v>2.874693409126898</v>
+        <v>2.788476511757652</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.995087312162216</v>
       </c>
       <c r="E30" t="n">
-        <v>9.13651136815454</v>
+        <v>8.806653625018281</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.943207872168114</v>
+        <v>-3.067040678498203</v>
       </c>
       <c r="G30" t="n">
-        <v>2.838579114407775</v>
+        <v>2.740166716886692</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.899096382646399</v>
       </c>
       <c r="E31" t="n">
-        <v>8.471390700219478</v>
+        <v>8.194457776017835</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.843430800068864</v>
+        <v>-2.971419016879187</v>
       </c>
       <c r="G31" t="n">
-        <v>2.775695476492691</v>
+        <v>2.675949884775866</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.797099446195355</v>
       </c>
       <c r="E32" t="n">
-        <v>8.00605713131287</v>
+        <v>7.745676592190826</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.890702529329327</v>
+        <v>-2.999669512068291</v>
       </c>
       <c r="G32" t="n">
-        <v>2.64970626396642</v>
+        <v>2.561798870060898</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.69499232313617</v>
       </c>
       <c r="E33" t="n">
-        <v>7.497510441450074</v>
+        <v>7.271007515875784</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.839890044055498</v>
+        <v>-2.942723861288314</v>
       </c>
       <c r="G33" t="n">
-        <v>2.533984378168393</v>
+        <v>2.445785790725431</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.599574081726592</v>
       </c>
       <c r="E34" t="n">
-        <v>6.852826837785981</v>
+        <v>6.652488832065072</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.716533378509602</v>
+        <v>-2.827024798767547</v>
       </c>
       <c r="G34" t="n">
-        <v>2.406351889679485</v>
+        <v>2.313149495449907</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.51241598461772</v>
       </c>
       <c r="E35" t="n">
-        <v>6.236315028354928</v>
+        <v>6.068746526720378</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.757586158221806</v>
+        <v>-2.844070638841672</v>
       </c>
       <c r="G35" t="n">
-        <v>2.18658419192524</v>
+        <v>2.107736852081925</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.43680137834473</v>
       </c>
       <c r="E36" t="n">
-        <v>5.64953171806788</v>
+        <v>5.497221757795219</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.660100857963169</v>
+        <v>-2.739114256823782</v>
       </c>
       <c r="G36" t="n">
-        <v>2.072804645722898</v>
+        <v>1.985892031902038</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.369024669897533</v>
       </c>
       <c r="E37" t="n">
-        <v>5.096276589083659</v>
+        <v>4.959171653522763</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.594238388861024</v>
+        <v>-2.668623384495452</v>
       </c>
       <c r="G37" t="n">
-        <v>1.865877795960225</v>
+        <v>1.791576223339226</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.308846498952441</v>
       </c>
       <c r="E38" t="n">
-        <v>4.585107583364775</v>
+        <v>4.469928734163598</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.580301236551467</v>
+        <v>-2.63536672149105</v>
       </c>
       <c r="G38" t="n">
-        <v>1.652582464832768</v>
+        <v>1.584298367312502</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.251609223102009</v>
       </c>
       <c r="E39" t="n">
-        <v>4.052218687791064</v>
+        <v>3.961959709318318</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.417197440154486</v>
+        <v>-2.474263503397243</v>
       </c>
       <c r="G39" t="n">
-        <v>1.46532613202899</v>
+        <v>1.401080967573981</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.197003674355042</v>
       </c>
       <c r="E40" t="n">
-        <v>3.464415413113413</v>
+        <v>3.409327891906132</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.310228674690013</v>
+        <v>-2.366771376574937</v>
       </c>
       <c r="G40" t="n">
-        <v>1.379546811975466</v>
+        <v>1.319482242306632</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.1427187689133</v>
       </c>
       <c r="E41" t="n">
-        <v>2.96151158180048</v>
+        <v>2.922723028594267</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.233878516182641</v>
+        <v>-2.283948064431216</v>
       </c>
       <c r="G41" t="n">
-        <v>1.197931763702429</v>
+        <v>1.141183652322175</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.088218753234432</v>
       </c>
       <c r="E42" t="n">
-        <v>2.513966002983691</v>
+        <v>2.492274445473047</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.206137216179277</v>
+        <v>-2.245834765428041</v>
       </c>
       <c r="G42" t="n">
-        <v>1.007245643233336</v>
+        <v>0.969237803511288</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.03242312937166</v>
       </c>
       <c r="E43" t="n">
-        <v>2.01210574634818</v>
+        <v>2.018993654022992</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.149304107766473</v>
+        <v>-2.183533514587839</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8339854884561625</v>
+        <v>0.8010475643238243</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.9738798365924631</v>
       </c>
       <c r="E44" t="n">
-        <v>1.7747483849134</v>
+        <v>1.786753428751561</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.111389922182143</v>
+        <v>-2.137556416054646</v>
       </c>
       <c r="G44" t="n">
-        <v>0.7796393302550136</v>
+        <v>0.7521648264927101</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.9125102298712601</v>
       </c>
       <c r="E45" t="n">
-        <v>1.330218626733024</v>
+        <v>1.372901303245335</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.070084512400971</v>
+        <v>-2.096903437199252</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6798370738498223</v>
+        <v>0.6552839495766528</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.8469936395229877</v>
       </c>
       <c r="E46" t="n">
-        <v>0.9763917204175996</v>
+        <v>1.021071827194841</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.02824944518548</v>
+        <v>-2.046903145792014</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5164255567146274</v>
+        <v>0.5070176444266132</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.7793799651545773</v>
       </c>
       <c r="E47" t="n">
-        <v>0.6354749189350837</v>
+        <v>0.707747580908726</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.987572069033706</v>
+        <v>-2.003157219363265</v>
       </c>
       <c r="G47" t="n">
-        <v>0.489558624333146</v>
+        <v>0.4700344911525323</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7096660133737456</v>
       </c>
       <c r="E48" t="n">
-        <v>0.476330567637735</v>
+        <v>0.5308498679422269</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.883525470067928</v>
+        <v>-1.899607223430257</v>
       </c>
       <c r="G48" t="n">
-        <v>0.3807167761143248</v>
+        <v>0.361548371255125</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6407315981357411</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2945219150127777</v>
+        <v>0.3597539894568422</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.83581222844394</v>
+        <v>-1.848299709142779</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2386064597476922</v>
+        <v>0.2415089510073706</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.573309255215565</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1713045501591173</v>
+        <v>0.2205099619100981</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.774543534147311</v>
+        <v>-1.788597163871844</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2040394258248077</v>
+        <v>0.1969830981040168</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5099639411389318</v>
       </c>
       <c r="E51" t="n">
-        <v>0.01367440525645995</v>
+        <v>0.07735449684692187</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.741407283605689</v>
+        <v>-1.751484154020255</v>
       </c>
       <c r="G51" t="n">
-        <v>0.07282289579669719</v>
+        <v>0.08242441243663139</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4518548750365644</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.153040978014345</v>
+        <v>-0.08672125635746182</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.652590893657615</v>
+        <v>-1.679578238501876</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0318590481648468</v>
+        <v>0.04114418696139956</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4011338532048374</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.1498724775231667</v>
+        <v>-0.0960882441483222</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.498271697976614</v>
+        <v>-1.528761235365769</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.08680625339001205</v>
+        <v>-0.06359104536994821</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3590413564516705</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.2190600620190598</v>
+        <v>-0.1655528560095642</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.447106632419614</v>
+        <v>-1.478636596447948</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.111351507567575</v>
+        <v>-0.09108758539994993</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3257154965080804</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.202959420427275</v>
+        <v>-0.1563007716145587</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.392967457732916</v>
+        <v>-1.427573842133833</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1747467016970815</v>
+        <v>-0.1443948909810403</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3007195499303991</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.2907534849560635</v>
+        <v>-0.2475230497895401</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.348201566913564</v>
+        <v>-1.385293327507015</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.2628886244516774</v>
+        <v>-0.2278525328306454</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2817478708160548</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2262926798814364</v>
+        <v>-0.224222844736926</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.308918771703262</v>
+        <v>-1.354023863643255</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.3126685531819329</v>
+        <v>-0.27205256377589</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2671489960964692</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3171859880600659</v>
+        <v>-0.3210202986395544</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.281059420265801</v>
+        <v>-1.321204777954575</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.3404169362713428</v>
+        <v>-0.2989824569222235</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2537090321055067</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.3165784166792439</v>
+        <v>-0.3297561047627732</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.292892896019739</v>
+        <v>-1.328813586386943</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.4167899180559734</v>
+        <v>-0.3751476681828425</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2402742013160336</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4364982114737794</v>
+        <v>-0.458262173864004</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.227620684088082</v>
+        <v>-1.274988428514944</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.4267314228261086</v>
+        <v>-0.3913333068071774</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2253156514055044</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4995660096260553</v>
+        <v>-0.5191436594567933</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.265801665913473</v>
+        <v>-1.301590925684047</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.4734073858491592</v>
+        <v>-0.4339703367649704</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.2089811721204045</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6627886444666941</v>
+        <v>-0.6716519461387382</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.305168671146764</v>
+        <v>-1.338297051592779</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.5134551543524126</v>
+        <v>-0.4730248992026831</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.1914964340334002</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7718807617258021</v>
+        <v>-0.7844650446006011</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.201209430242217</v>
+        <v>-1.248936838038297</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.4914409229219012</v>
+        <v>-0.4615833542099484</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1737280831394267</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7876178049005664</v>
+        <v>-0.8007466983913354</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.195069181650023</v>
+        <v>-1.254403406446574</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.6090642238184589</v>
+        <v>-0.5689424764165044</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1565097363522432</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.9243229396046524</v>
+        <v>-0.9355433349108444</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.253604591742514</v>
+        <v>-1.309486205596491</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.6181541842439704</v>
+        <v>-0.5757375169631596</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1396773189432611</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.01816674662616</v>
+        <v>-1.026634969498758</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.239935022683578</v>
+        <v>-1.299467573889413</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.6227896705562009</v>
+        <v>-0.5898470243664988</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1234526219918239</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9712869481269011</v>
+        <v>-0.9953961990078637</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.239932661654896</v>
+        <v>-1.30209067675506</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.6442498472560145</v>
+        <v>-0.6069361499664604</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1078253898919249</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.055527664489353</v>
+        <v>-1.082853423444694</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.166138710200517</v>
+        <v>-1.257567184880388</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.6723964571831135</v>
+        <v>-0.6399842554372897</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.09338859351784062</v>
       </c>
       <c r="E69" t="n">
-        <v>-0.9702236982104624</v>
+        <v>-1.030309517137434</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.187104644896242</v>
+        <v>-1.284288520493149</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.6880123008855376</v>
+        <v>-0.6582145449001943</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.08072578994777192</v>
       </c>
       <c r="E70" t="n">
-        <v>-0.9678028568019019</v>
+        <v>-1.034117069391861</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.13521159549564</v>
+        <v>-1.234115873992129</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.8053019097283796</v>
+        <v>-0.7691466905121028</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.07085600239770537</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.004896191414474</v>
+        <v>-1.073094504892629</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.068961130680094</v>
+        <v>-1.185995748425285</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.7432477798902213</v>
+        <v>-0.7190078854221907</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.06422933896359136</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.051671317642167</v>
+        <v>-1.112299386156426</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.086199001087018</v>
+        <v>-1.223061537703235</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.7244886200025596</v>
+        <v>-0.7002912240508042</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.06103976133215167</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8690040375865398</v>
+        <v>-0.9509065485442998</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.016296024900494</v>
+        <v>-1.170576657113024</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.7861476710412716</v>
+        <v>-0.7585236354624445</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.06069254432880514</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.6859755201425745</v>
+        <v>-0.7927129047962167</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.004154041398781</v>
+        <v>-1.183654394982351</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.8118592733877182</v>
+        <v>-0.7812257132489643</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.06354390071116027</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.5797213593591716</v>
+        <v>-0.6851601782377407</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.8472912308177574</v>
+        <v>-1.051601273791269</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.80007459222654</v>
+        <v>-0.7732108078833012</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.06961580181367794</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.3079858462960634</v>
+        <v>-0.4379337169124056</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.8165781827133778</v>
+        <v>-1.03476950031764</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.7271927848529542</v>
+        <v>-0.707372736077536</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.07933120847908155</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.1347225434806476</v>
+        <v>-0.2664852581438495</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.7453915939334328</v>
+        <v>-0.9732749342771038</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.7100359764307768</v>
+        <v>-0.6922574304556856</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.0925539988151607</v>
       </c>
       <c r="E78" t="n">
-        <v>0.06012843158340715</v>
+        <v>-0.07443603711570995</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.6706477219393484</v>
+        <v>-0.9108682241557742</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.6640840622035246</v>
+        <v>-0.64073506255815</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.1088769217101479</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3085716096895077</v>
+        <v>0.1577506715055971</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.469653350244857</v>
+        <v>-0.7401674244698359</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6303984789885685</v>
+        <v>-0.6108664757123482</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.1283060116354091</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5304752513913574</v>
+        <v>0.3855458667784752</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.4110903948177437</v>
+        <v>-0.6831847842405083</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5768487744627978</v>
+        <v>-0.5657818460209326</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.1492731174904458</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8062858999595129</v>
+        <v>0.6586964230316327</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.3292130681659245</v>
+        <v>-0.6174883741556603</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.448844817461262</v>
+        <v>-0.4431327020700618</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1712023585258414</v>
       </c>
       <c r="E82" t="n">
-        <v>1.093294120556602</v>
+        <v>0.9463074929521795</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.1508688316269501</v>
+        <v>-0.457456276073898</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.3720169441505754</v>
+        <v>-0.3670162854022031</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1927635190937291</v>
       </c>
       <c r="E83" t="n">
-        <v>1.347721719361888</v>
+        <v>1.20492827869661</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1310723931383513</v>
+        <v>-0.4349367845054491</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2964907846532045</v>
+        <v>-0.2939015231986649</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2132542235490867</v>
       </c>
       <c r="E84" t="n">
-        <v>1.544319855650586</v>
+        <v>1.419511157465291</v>
       </c>
       <c r="F84" t="n">
-        <v>0.008355794645584927</v>
+        <v>-0.3084816623192731</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1841010973349715</v>
+        <v>-0.1885004807790069</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2320361118774477</v>
       </c>
       <c r="E85" t="n">
-        <v>1.814530144185154</v>
+        <v>1.691704710092697</v>
       </c>
       <c r="F85" t="n">
-        <v>0.08339558223447392</v>
+        <v>-0.2274857863753823</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.2046530650017946</v>
+        <v>-0.2029546983699111</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2482328862203922</v>
       </c>
       <c r="E86" t="n">
-        <v>1.937771119325634</v>
+        <v>1.834913691805998</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1892357759889748</v>
+        <v>-0.1117639005773558</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.1719323555081959</v>
+        <v>-0.1612337475407151</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2609884722026495</v>
       </c>
       <c r="E87" t="n">
-        <v>2.132809402665123</v>
+        <v>2.049225839285814</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3137863350383769</v>
+        <v>0.0245461553272838</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1036120555481395</v>
+        <v>-0.1025401485265337</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2686201199256877</v>
       </c>
       <c r="E88" t="n">
-        <v>2.356194196360117</v>
+        <v>2.270067018080786</v>
       </c>
       <c r="F88" t="n">
-        <v>0.4175047510173644</v>
+        <v>0.1446170559574642</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.07963030021600222</v>
+        <v>-0.07960668992918271</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2690425955617909</v>
       </c>
       <c r="E89" t="n">
-        <v>2.445886527949194</v>
+        <v>2.383961467678982</v>
       </c>
       <c r="F89" t="n">
-        <v>0.641423137194479</v>
+        <v>0.368777841079259</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.006103145002683191</v>
+        <v>-0.01038919906998496</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2591785988041881</v>
       </c>
       <c r="E90" t="n">
-        <v>2.518640839773954</v>
+        <v>2.457003825002941</v>
       </c>
       <c r="F90" t="n">
-        <v>0.6768354193855018</v>
+        <v>0.430657254794953</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01429929084761632</v>
+        <v>0.008409311295709151</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.2364346133519562</v>
       </c>
       <c r="E91" t="n">
-        <v>2.551106558169902</v>
+        <v>2.507547153007027</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8555306621885264</v>
+        <v>0.6068387890612602</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.01049308433199081</v>
+        <v>-0.02071319048659618</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1993547136237745</v>
       </c>
       <c r="E92" t="n">
-        <v>2.670162216466844</v>
+        <v>2.623141543256228</v>
       </c>
       <c r="F92" t="n">
-        <v>1.000143668958027</v>
+        <v>0.7582735947024781</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.04710162105520221</v>
+        <v>-0.04762262138435273</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1469185168724965</v>
       </c>
       <c r="E93" t="n">
-        <v>2.717738518427278</v>
+        <v>2.668769209544493</v>
       </c>
       <c r="F93" t="n">
-        <v>1.085858454227577</v>
+        <v>0.8609783423673479</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05370935332642249</v>
+        <v>-0.05111064775715506</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.08036931160214375</v>
       </c>
       <c r="E94" t="n">
-        <v>2.664963231309188</v>
+        <v>2.62584256006838</v>
       </c>
       <c r="F94" t="n">
-        <v>1.095504043402908</v>
+        <v>0.9067382262618016</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1024173750350723</v>
+        <v>-0.09755208193113185</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.004032071960499352</v>
       </c>
       <c r="E95" t="n">
-        <v>2.528541420046936</v>
+        <v>2.491111245342405</v>
       </c>
       <c r="F95" t="n">
-        <v>1.236128485719033</v>
+        <v>1.039132122592645</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06466767444891788</v>
+        <v>-0.05915703350524417</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07622857410581614</v>
       </c>
       <c r="E96" t="n">
-        <v>2.454589279670865</v>
+        <v>2.404149836928785</v>
       </c>
       <c r="F96" t="n">
-        <v>1.204101918657928</v>
+        <v>1.031690160187135</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.05925147465252222</v>
+        <v>-0.06604021912269208</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1539976016284247</v>
       </c>
       <c r="E97" t="n">
-        <v>2.263441971599231</v>
+        <v>2.2072054164334</v>
       </c>
       <c r="F97" t="n">
-        <v>1.167391070691832</v>
+        <v>1.013505517278749</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.1403166074377502</v>
+        <v>-0.1332917600993853</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2252020214767582</v>
       </c>
       <c r="E98" t="n">
-        <v>2.142681650593921</v>
+        <v>2.080015227317577</v>
       </c>
       <c r="F98" t="n">
-        <v>1.084407208597738</v>
+        <v>0.9574908988090209</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.1897030313876806</v>
+        <v>-0.1860308447776861</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2861126590202554</v>
       </c>
       <c r="E99" t="n">
-        <v>1.997864021338651</v>
+        <v>1.913257345530497</v>
       </c>
       <c r="F99" t="n">
-        <v>1.065287598331299</v>
+        <v>0.9352531566632849</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.2282602037830623</v>
+        <v>-0.2210275859206856</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.3318315569033934</v>
       </c>
       <c r="E100" t="n">
-        <v>1.780342448870503</v>
+        <v>1.703815213211985</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9617486205321393</v>
+        <v>0.8555637165900736</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3058514763675796</v>
+        <v>-0.286291140747176</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3627550255412786</v>
       </c>
       <c r="E101" t="n">
-        <v>1.642825120299826</v>
+        <v>1.571906114770502</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8674601531088643</v>
+        <v>0.7775742171678671</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3751098917239312</v>
+        <v>-0.3549687430477677</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3754281967773304</v>
       </c>
       <c r="E102" t="n">
-        <v>1.486833529302442</v>
+        <v>1.414198842930901</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7434416125224618</v>
+        <v>0.6731522146416582</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3381818291190958</v>
+        <v>-0.3253803316055573</v>
       </c>
     </row>
   </sheetData>
